--- a/biology/Médecine/Prix_Prince-Mahidol/Prix_Prince-Mahidol.xlsx
+++ b/biology/Médecine/Prix_Prince-Mahidol/Prix_Prince-Mahidol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix Prince-Mahidol (Thaïlande: พระราชทาน รางวัล สมเด็จ เจ้าฟ้า มหิดล) est un prix annuel de la famille royale thaïlandaise. Il distingue les professeurs et chercheurs de par le monde pour leurs découvertes ou imminents travaux dans le domaine de la médecine et de la santé publique[1].
+Le prix Prince-Mahidol (Thaïlande: พระราชทาน รางวัล สมเด็จ เจ้าฟ้า มหิดล) est un prix annuel de la famille royale thaïlandaise. Il distingue les professeurs et chercheurs de par le monde pour leurs découvertes ou imminents travaux dans le domaine de la médecine et de la santé publique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Fondation Prince Mahidol Award</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roi Rama IX Bhumibol Adulyadej de Thaïlande a fondé la «Prince Mahidol Fondation Award» le 1er janvier 1992 à l'occasion du 100e anniversaire de la naissance de son père le prince Mahidol, sur proposition de la faculté de médecine et l’hôpital Siriraj. D'abord sous le nom de prix de la Fondation Mahidol, depuis le 28 juillet 1997 en tant que Prince Mahidol Award Foundation. En plus de la prime réelle, la fondation rend hommage à la mémoire du prince Mahidol, qui est considéré comme « le père de la médecine moderne et la santé publique de la Thaïlande».
 La princesse Maha Chakri Sirindhorn est présidente du comité de la Fondation.
@@ -544,9 +558,11 @@
           <t>Prix Prince-Mahidol</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix est décerné chaque année dans deux catégories à des personnalités et des organisations internationales:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le prix est décerné chaque année dans deux catégories à des personnalités et des organisations internationales:
 Pour des progrès remarquables dans la médecine
 Pour la promotion active de la santé publique.
 Le prix Prince-Mahidol se compose de
@@ -557,10 +573,7 @@
 Tout individu ou groupe d'individus peuvent être désignés par une agence gouvernementale nationale, ou par un individu. Les candidatures sont transmises au secrétaire général de la Fondation Prince Mahidol Award.
 Les formulaires de candidature sont transmis au comité consultatif scientifique pour le dépistage initial.
 Une fois examiné, le Comité International Award, qui comprend plusieurs experts de renommée mondiale dans les domaines de la médecine et de la santé publique, les examinera et fera des recommandations au conseil d'administration de la Fondation.
-Conseil d'administration de la Fondation rend l'approbation finale[2]
-Lauréats
-Entre 1992 et 2014, 68 prix ont été décernés, dont 31 en médecine et 37 en santé publique[3].
-</t>
+Conseil d'administration de la Fondation rend l'approbation finale</t>
         </is>
       </c>
     </row>
@@ -585,12 +598,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Prix Prince-Mahidol</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1992 et 2014, 68 prix ont été décernés, dont 31 en médecine et 37 en santé publique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Prince-Mahidol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Prince-Mahidol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prince Mahidol Award Conference</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La « Prince Mahidol Award Conference » (PMAC) est une conférence internationale annuelle consacrée aux questions de politique en santé publique dans le monde. Elle est organisée par la Fondation Prince Mahidol Award, le ministère thaïlandais de la Santé publique, et leurs partenaires : institutions et organismes mondiaux. Elle est l'occasion d'aborder ou de présenter, tant pour les acteurs du public ou du privé, les recherches et perspectives en matière de politique pour la santé[8]. Les PMAC se déroulent en Thaïlande, depuis 2007[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « Prince Mahidol Award Conference » (PMAC) est une conférence internationale annuelle consacrée aux questions de politique en santé publique dans le monde. Elle est organisée par la Fondation Prince Mahidol Award, le ministère thaïlandais de la Santé publique, et leurs partenaires : institutions et organismes mondiaux. Elle est l'occasion d'aborder ou de présenter, tant pour les acteurs du public ou du privé, les recherches et perspectives en matière de politique pour la santé. Les PMAC se déroulent en Thaïlande, depuis 2007.
 </t>
         </is>
       </c>
